--- a/Demo_Excel.xlsx
+++ b/Demo_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,27 +1020,30 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>import dash
-import dash_core_components as dcc
-import dash_html_components as html
+    <t>Diagnostic_Centre</t>
+  </si>
+  <si>
+    <t>Single_Speciality</t>
+  </si>
+  <si>
+    <t>import pandas as pd
 import plotly.graph_objs as go
-app = dash.Dash()
-trace1 = go.Bar(
-    x=['Contract_Start_Date'],
-    y=['Multispeciality'],
-    name='SF Zoo'
-)
-trace2 = go.Bar(
-    x=['giraffes', 'orangutans', 'monkeys'],
-    y=[12, 18, 29],
-    name='LA Zoo'
-)
-app.layout = html.Div([
-    dcc.Graph(id='bar_plot',
-              figure=go.Figure(data=[trace1, trace2, trace3, trace4],
-                               layout=go.Layout(barmode='stack'))
-              )
-    ])</t>
+import plotly.offline as pyo
+df = pd.read_excel(r'C:\Users\shrey\Demo_Excel.xlsx')
+#Changing the date format to Month, Year
+df['Contract_Start_Date']= df['Contract_Start_Date'].dt.strftime('%m/%Y')
+#For Stacked Bar Graph
+dfpivot = df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count')
+df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count').plot.bar(stacked=True)
+dfpivot.head()
+trace1= go.Bar(x=dfpivot.index,y=dfpivot.Clinic, name ='Clinic')
+trace2= go.Bar(x=dfpivot.index,y=dfpivot.Multispeciality, name ='Multispeciality')
+trace3= go.Bar(x=dfpivot.index,y=dfpivot.Diagnostic_Centre, name ='Diagnostic Centre')
+trace4= go.Bar(x=dfpivot.index,y=dfpivot.Single_Speciality, name ='Single Speciality')
+data = [trace1,trace2,trace3,trace4]
+layout = go.Layout(title = 'Trial 4', barmode = 'stack')
+figure = go.Figure(data = data, layout = layout)
+pyo.plot(figure)</t>
   </si>
   <si>
     <t xml:space="preserve">import pandas as pd
@@ -1051,70 +1054,13 @@
 #For Stacked Bar Graph
 pivot = df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count')
 df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count').plot.bar(stacked=True)
-#100% Stacked Bar Graph
-#'Jan, 2021','Feb, 2021','Mar, 2021','Apr, 2021','May, 2021','Jun, 2021','Jul, 2021','Aug, 2021','Sep, 2021','Oct, 2021','Nov, 2021','Dec, 2021'
-#trying using plotly
-#import plotly.express as px
-#fig = px.bar(df,x="Contract_Start_Date",y="Provider_Category", color="Provider_Name", barmode ='stack')
 </t>
   </si>
   <si>
-    <t>import pandas as pd
-import plotly.express as px
-import dash
-import dash_core_component as dcc
-import dash_html_component as html
-import plotly.graph_objs as go
-df = pd.read_excel(r'C:\Users\shrey\Demo_Excel.xlsx')
-#print (df)
-#Changing the date format to Month, Year
-df['Contract_Start_Date']= df['Contract_Start_Date'].dt.strftime('%m/%Y')
-#For Stacked Bar Graph
-dfpivot = df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count')
-#df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count').plot.bar(stacked=True)
-#100% Stacked Bar Graph
-#'Jan, 2021','Feb, 2021','Mar, 2021','Apr, 2021','May, 2021','Jun, 2021','Jul, 2021','Aug, 2021','Sep, 2021','Oct, 2021','Nov, 2021','Dec, 2021'
-#trying using plotly
-#'Clinic','Multispeciality','Diagnostic Centre','Single Speciality'
-fig = px.bar(dfpivot,x="Contract_Start_Date",y= "Provider_Name", color="Provider_Category", barmode ='stack',title ='Trial four')
-fig.show()
-app = dash.Dash()
-trace1= go.Bar(dfpivot,x="Contract_Start_Date",y="Clinic", name ='Clinic')
-trace2= go.Bar(dfpivot,x="Contract_Start_Date",y="Multispeciality", name ='Multispeciality')
-app.layout = html.Div([dcc.Graph(id='bar_plot',figure = go.Figure(data=[trace1,trace2],layout=go.Layout(barmode='stack')))])</t>
-  </si>
-  <si>
-    <t>Diagnostic_Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import pandas as pd
-#import plotly.express as px
-#import dash
-#import dash_core_components as dcc
-#import dash_html_components as html
-import plotly.graph_objs as go
-import plotly.offline as pyo
-df = pd.read_excel(r'C:\Users\shrey\Demo_Excel.xlsx')
-#Changing the date format to Month, Year
-df['Contract_Start_Date']= df['Contract_Start_Date'].dt.strftime('%m/%Y')
-#For Stacked Bar Graph
-dfpivot = df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count')
-df.pivot_table(index='Contract_Start_Date',columns = 'Provider_Category',values = 'Provider_Name', aggfunc= 'count').plot.bar(stacked=True)
-#app = dash.Dash()
-dfpivot.head()
-trace1= go.Bar(x=dfpivot.index,y=dfpivot.Clinic, name ='Clinic')
-trace2= go.Bar(x=dfpivot.index,y=dfpivot.Multispeciality, name ='Multispeciality')
-trace3= go.Bar(dfpivot,x=dfpivot.index,y="Diagnostic_Centre", name ='Diagnostic Centre')
-trace4= go.Bar(dfpivot,x=dfpivot.index,y='Single_Speciality', name ='Single Speciality')
-data = [trace1,trace2.trace3,trace4]
-layout = go.Layout(title = 'Trial 3', barmode = 'stack')
-figure = go.Figure(data = data, layout = layout)
-pyo.plot(figure)
-#app.layout = html.Div([dcc.Graph(id='bar_plot',figure = go.Figure(data=[trace1,trace2],layout=go.Layout(barmode='stack')))])
-</t>
-  </si>
-  <si>
-    <t>Single_Speciality</t>
+    <t>Using Plotly</t>
+  </si>
+  <si>
+    <t>Normal Stacked Bar</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1298,6 +1244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5132,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="B2:B321 B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -5271,7 +5220,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -5421,7 +5370,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -5451,7 +5400,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -5481,7 +5430,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -5573,7 +5522,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -5605,7 +5554,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -5667,7 +5616,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -5681,7 +5630,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -5723,7 +5672,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -5737,7 +5686,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -5765,7 +5714,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -5849,7 +5798,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -5863,7 +5812,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -5891,7 +5840,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -5919,7 +5868,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -5961,7 +5910,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -6003,7 +5952,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -6031,7 +5980,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -6045,7 +5994,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -6059,7 +6008,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -6101,7 +6050,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -6115,7 +6064,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -6171,7 +6120,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -6185,7 +6134,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -6227,7 +6176,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -6255,7 +6204,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -6283,7 +6232,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -6339,7 +6288,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -6353,7 +6302,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -6381,7 +6330,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -6423,7 +6372,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -6437,7 +6386,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -6493,7 +6442,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -6521,7 +6470,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -6535,7 +6484,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -6549,7 +6498,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -6577,7 +6526,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -6591,7 +6540,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -6605,7 +6554,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -6701,7 +6650,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -6715,7 +6664,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
@@ -6729,7 +6678,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C96" s="2">
         <v>1</v>
@@ -6743,7 +6692,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -6785,7 +6734,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -6813,7 +6762,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C102" s="2">
         <v>1</v>
@@ -6827,7 +6776,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -6897,7 +6846,7 @@
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -6925,7 +6874,7 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
@@ -6939,7 +6888,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -6953,7 +6902,7 @@
         <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -6967,7 +6916,7 @@
         <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -7009,7 +6958,7 @@
         <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -7023,7 +6972,7 @@
         <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C117" s="2">
         <v>1</v>
@@ -7051,7 +7000,7 @@
         <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C119" s="2">
         <v>1</v>
@@ -7121,7 +7070,7 @@
         <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -7135,7 +7084,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -7149,7 +7098,7 @@
         <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C126" s="2">
         <v>1</v>
@@ -7163,7 +7112,7 @@
         <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -7177,7 +7126,7 @@
         <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -7191,7 +7140,7 @@
         <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -7331,7 +7280,7 @@
         <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C139" s="2">
         <v>1</v>
@@ -7345,7 +7294,7 @@
         <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -7373,7 +7322,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -7401,7 +7350,7 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -7415,7 +7364,7 @@
         <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C145" s="2">
         <v>1</v>
@@ -7457,7 +7406,7 @@
         <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -7485,7 +7434,7 @@
         <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -7499,7 +7448,7 @@
         <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -7513,7 +7462,7 @@
         <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -7541,7 +7490,7 @@
         <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -7611,7 +7560,7 @@
         <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -7639,7 +7588,7 @@
         <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -7653,7 +7602,7 @@
         <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C162" s="2">
         <v>1</v>
@@ -7667,7 +7616,7 @@
         <v>165</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C163" s="2">
         <v>1</v>
@@ -7695,7 +7644,7 @@
         <v>167</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -7709,7 +7658,7 @@
         <v>168</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -7723,7 +7672,7 @@
         <v>169</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -7751,7 +7700,7 @@
         <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C169" s="2">
         <v>1</v>
@@ -7793,7 +7742,7 @@
         <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -7807,7 +7756,7 @@
         <v>175</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
@@ -7877,7 +7826,7 @@
         <v>180</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7891,7 +7840,7 @@
         <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7947,7 +7896,7 @@
         <v>185</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C183" s="2">
         <v>1</v>
@@ -8101,7 +8050,7 @@
         <v>196</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -8115,7 +8064,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -8143,7 +8092,7 @@
         <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -8171,7 +8120,7 @@
         <v>201</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -8213,7 +8162,7 @@
         <v>204</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -8297,7 +8246,7 @@
         <v>210</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -8339,7 +8288,7 @@
         <v>213</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -8409,7 +8358,7 @@
         <v>218</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8423,7 +8372,7 @@
         <v>219</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8437,7 +8386,7 @@
         <v>220</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8479,7 +8428,7 @@
         <v>223</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -8493,7 +8442,7 @@
         <v>224</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -8521,7 +8470,7 @@
         <v>226</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -8535,7 +8484,7 @@
         <v>227</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -8577,7 +8526,7 @@
         <v>230</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -8619,7 +8568,7 @@
         <v>233</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -8717,7 +8666,7 @@
         <v>240</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -8745,7 +8694,7 @@
         <v>242</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C240" s="2">
         <v>1</v>
@@ -8773,7 +8722,7 @@
         <v>244</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
@@ -8815,7 +8764,7 @@
         <v>247</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -8857,7 +8806,7 @@
         <v>250</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C248" s="2">
         <v>1</v>
@@ -8885,7 +8834,7 @@
         <v>252</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C250" s="2">
         <v>0</v>
@@ -8899,7 +8848,7 @@
         <v>253</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C251" s="2">
         <v>1</v>
@@ -8955,7 +8904,7 @@
         <v>257</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C255" s="2">
         <v>0</v>
@@ -8969,7 +8918,7 @@
         <v>258</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C256" s="2">
         <v>0</v>
@@ -9025,7 +8974,7 @@
         <v>262</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C260" s="2">
         <v>1</v>
@@ -9039,7 +8988,7 @@
         <v>263</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C261" s="2">
         <v>0</v>
@@ -9081,7 +9030,7 @@
         <v>266</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C264" s="2">
         <v>1</v>
@@ -9109,7 +9058,7 @@
         <v>268</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C266" s="2">
         <v>0</v>
@@ -9137,7 +9086,7 @@
         <v>270</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C268" s="2">
         <v>1</v>
@@ -9193,7 +9142,7 @@
         <v>274</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C272" s="2">
         <v>1</v>
@@ -9207,7 +9156,7 @@
         <v>275</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C273" s="2">
         <v>0</v>
@@ -9235,7 +9184,7 @@
         <v>277</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C275" s="2">
         <v>0</v>
@@ -9277,7 +9226,7 @@
         <v>280</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C278" s="2">
         <v>0</v>
@@ -9291,7 +9240,7 @@
         <v>281</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C279" s="2">
         <v>0</v>
@@ -9347,7 +9296,7 @@
         <v>285</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C283" s="2">
         <v>0</v>
@@ -9375,7 +9324,7 @@
         <v>287</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C285" s="2">
         <v>0</v>
@@ -9389,7 +9338,7 @@
         <v>288</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C286" s="2">
         <v>0</v>
@@ -9403,7 +9352,7 @@
         <v>289</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C287" s="2">
         <v>0</v>
@@ -9431,7 +9380,7 @@
         <v>291</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C289" s="2">
         <v>0</v>
@@ -9445,7 +9394,7 @@
         <v>292</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C290" s="2">
         <v>0</v>
@@ -9459,7 +9408,7 @@
         <v>293</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C291" s="2">
         <v>0</v>
@@ -9557,7 +9506,7 @@
         <v>300</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C298" s="2">
         <v>0</v>
@@ -9571,7 +9520,7 @@
         <v>301</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C299" s="2">
         <v>0</v>
@@ -9585,7 +9534,7 @@
         <v>302</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C300" s="2">
         <v>0</v>
@@ -9599,7 +9548,7 @@
         <v>303</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C301" s="2">
         <v>0</v>
@@ -9641,7 +9590,7 @@
         <v>306</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
@@ -9669,7 +9618,7 @@
         <v>308</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C306" s="2">
         <v>0</v>
@@ -9683,7 +9632,7 @@
         <v>309</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C307" s="2">
         <v>0</v>
@@ -9753,7 +9702,7 @@
         <v>314</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C312" s="2">
         <v>1</v>
@@ -9781,7 +9730,7 @@
         <v>316</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C314" s="2">
         <v>1</v>
@@ -9795,7 +9744,7 @@
         <v>317</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C315" s="2">
         <v>1</v>
@@ -9809,7 +9758,7 @@
         <v>318</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C316" s="2">
         <v>0</v>
@@ -9823,7 +9772,7 @@
         <v>319</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C317" s="2">
         <v>0</v>
@@ -9865,7 +9814,7 @@
         <v>322</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C320" s="2">
         <v>0</v>
@@ -9879,7 +9828,7 @@
         <v>323</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C321" s="9">
         <v>1</v>
@@ -9947,10 +9896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9960,21 +9909,25 @@
     <col min="5" max="5" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>337</v>
+      </c>
+    </row>
     <row r="2" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>336</v>
-      </c>
+      <c r="C2" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
